--- a/in.xlsx
+++ b/in.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klubnichkina\Desktop\ШП ПРО\Продукт\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17F8B8B7-E617-4B0B-8EEB-346351B0277D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3288A32-6D87-4345-B595-164D20098671}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9FC4D683-FE8E-4900-A10F-C8CAB7AECC24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Шоколад – Barry Callebaut, Бельгия</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>bakerstore</t>
+  </si>
+  <si>
+    <t>VTK</t>
+  </si>
+  <si>
+    <t>tortomaster</t>
   </si>
   <si>
     <t>Шоколад белый Callebaut CW2 (25.9% какао) 1кг</t>
@@ -45,89 +51,77 @@
     <t>https://bakerstore.ru/shokolad/belyy-shokolad/shokolad-belyy-callebaut-cw2-259-kakao-1kg-belgiya</t>
   </si>
   <si>
+    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/belyj-shokolad/shokolad-belyjj-28-kakao-1-kg-galety/</t>
+  </si>
+  <si>
+    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-barry-callebaut-belyy-25-9-1-kg.html</t>
+  </si>
+  <si>
     <t>Шоколад белый Callebaut CW2 (25.9% какао) 2,5кг в фирменной упаковке</t>
   </si>
   <si>
     <t>https://bakerstore.ru/shokolad/belyy-shokolad/shokolad-belyy-callebaut-cw2-259-kakao-25kg-v-firmennoy-upakovke-belgiya</t>
   </si>
   <si>
+    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/belyj-shokolad/belgijjskijj-belyjj-shokolad-callebaut-select-259-kakao-25kg-galety/</t>
+  </si>
+  <si>
+    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-callebaut-belyy-25-9-2-5-kg.html</t>
+  </si>
+  <si>
+    <t>Шоколад темный Callebaut 811 (54,5% какао) 500г</t>
+  </si>
+  <si>
+    <t>https://bakerstore.ru/shokolad/chernyy-shokolad/shokolad-temnyy-callebaut-811-545-kakao-500g-belgiya</t>
+  </si>
+  <si>
+    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/temnyj-shokolad/shokolad-temnyj-callebaut-545-500-gr/</t>
+  </si>
+  <si>
+    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-callebaut-tyemnyy-54-5-500-gr.html</t>
+  </si>
+  <si>
     <t>Шоколад темный Callebaut 811 в каллетах (54,5% какао) 1кг</t>
   </si>
   <si>
     <t>https://bakerstore.ru/shokolad/chernyy-shokolad/shokolad-temnyy-callebaut-811-v-galetah-545-kakao-1kg-belgiya</t>
   </si>
   <si>
-    <t>https://bakerstore.ru/shokolad/chernyy-shokolad/shokolad-temnyy-callebaut-811-545-kakao-500g-belgiya</t>
-  </si>
-  <si>
-    <t>Шоколад темный Callebaut 811 (54,5% какао) 500г</t>
+    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/temnyj-shokolad/belgijjskijj-temnyjj-shokolad-callebaut-select-545-kakao-1kg-galety/</t>
+  </si>
+  <si>
+    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-barry-callebaut-tyemnyy-54-5-1-kg.html</t>
+  </si>
+  <si>
+    <t>Шоколад темный Callebaut 811 (54,5% какао) 2,5кг в фирменной упаковке</t>
   </si>
   <si>
     <t>https://bakerstore.ru/shokolad/chernyy-shokolad/shokolad-temnyy-callebaut-811-545-kakao-25kg-v-firmennoy-upakovke-belgiya</t>
   </si>
   <si>
-    <t>Шоколад темный Callebaut 811 (54,5% какао) 2,5кг в фирменной упаковке</t>
+    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/temnyj-shokolad/art2676/</t>
+  </si>
+  <si>
+    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-callebaut-tyemnyy-54-5-2-5-kg.html</t>
+  </si>
+  <si>
+    <t>Шоколад молочный Callebaut 823 (33,6% какао) 1 кг</t>
   </si>
   <si>
     <t>https://bakerstore.ru/shokolad/molochnyj-shokolad/shokolad-molochnyj-callebaut-823-351-kakao-1-kg</t>
   </si>
   <si>
-    <t>Сироп глюкозы</t>
-  </si>
-  <si>
-    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/belyj-shokolad/belgijjskijj-belyjj-shokolad-callebaut-select-259-kakao-25kg-galety/</t>
-  </si>
-  <si>
-    <t>bakerstore</t>
-  </si>
-  <si>
-    <t>VTK</t>
-  </si>
-  <si>
-    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/belyj-shokolad/shokolad-belyjj-28-kakao-1-kg-galety/</t>
-  </si>
-  <si>
-    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/temnyj-shokolad/art2676/</t>
-  </si>
-  <si>
-    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/temnyj-shokolad/shokolad-temnyj-callebaut-545-500-gr/</t>
-  </si>
-  <si>
-    <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/temnyj-shokolad/belgijjskijj-temnyjj-shokolad-callebaut-select-545-kakao-1kg-galety/</t>
-  </si>
-  <si>
     <t>https://vtk-moscow.ru/shop/pishhevye-ingredienty/shokolad-belgija/molochnyj-shokolad/shokolad-molochnyjj-336-kakao-1-kg-galety/</t>
   </si>
   <si>
-    <t>tortomaster</t>
-  </si>
-  <si>
-    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-barry-callebaut-belyy-25-9-1-kg.html</t>
-  </si>
-  <si>
-    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-callebaut-belyy-25-9-2-5-kg.html</t>
-  </si>
-  <si>
-    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-callebaut-tyemnyy-54-5-2-5-kg.html</t>
-  </si>
-  <si>
-    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-barry-callebaut-tyemnyy-54-5-1-kg.html</t>
-  </si>
-  <si>
-    <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-callebaut-tyemnyy-54-5-500-gr.html</t>
-  </si>
-  <si>
     <t>https://msk.tortomaster.ru/catalog/konditerskiy-shokolad/shokolad-barry-callebaut-molochnyy-33-1-kg.html</t>
-  </si>
-  <si>
-    <t>Шоколад молочный Callebaut 823 (33,6% какао) 1 кг</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -182,8 +176,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -495,138 +489,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782877C5-29DB-42FC-ACF9-DEC83610DA55}">
-  <dimension ref="A4:D13"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A9" sqref="A9:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="66.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
         <v>21</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{F8CD3250-004C-4C83-8CC2-08A7D388DC5A}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{B16EA059-4808-47C3-ADA2-4CC0008F8FFA}"/>
-    <hyperlink ref="B9" r:id="rId3" xr:uid="{AB255A40-278B-4DB6-93E2-A554E569248E}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{5777E319-A567-47FA-8B57-85387A83590B}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{38BD11CE-FA24-41DE-9DB9-2CD4D9C8AC9B}"/>
-    <hyperlink ref="B11" r:id="rId6" xr:uid="{C44D2A28-A3CC-4386-8CA4-B17EB4D0258C}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{922E1A9F-54F1-425B-BBA5-71B2FB7B4EEE}"/>
-    <hyperlink ref="B5" r:id="rId8" display="https://bakerstore.ru/" xr:uid="{2BEA716A-6DAB-47E3-A78D-7A4FE5D7F780}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{774EE664-D9E9-4AE4-8E6A-37C8D372DEB1}"/>
-    <hyperlink ref="D7" r:id="rId10" xr:uid="{B3BB8D0E-3FC7-428B-93D7-1C12402DA2F8}"/>
-    <hyperlink ref="D9" r:id="rId11" xr:uid="{A8C34F8F-27D0-4C3E-9B21-C01595B891A0}"/>
-    <hyperlink ref="D8" r:id="rId12" xr:uid="{9A61A1B4-7783-489E-9FB7-F8F0F20312BF}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F8CD3250-004C-4C83-8CC2-08A7D388DC5A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B16EA059-4808-47C3-ADA2-4CC0008F8FFA}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{AB255A40-278B-4DB6-93E2-A554E569248E}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{5777E319-A567-47FA-8B57-85387A83590B}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{38BD11CE-FA24-41DE-9DB9-2CD4D9C8AC9B}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{C44D2A28-A3CC-4386-8CA4-B17EB4D0258C}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{922E1A9F-54F1-425B-BBA5-71B2FB7B4EEE}"/>
+    <hyperlink ref="B1" r:id="rId8" display="https://bakerstore.ru/" xr:uid="{2BEA716A-6DAB-47E3-A78D-7A4FE5D7F780}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{774EE664-D9E9-4AE4-8E6A-37C8D372DEB1}"/>
+    <hyperlink ref="D3" r:id="rId10" xr:uid="{B3BB8D0E-3FC7-428B-93D7-1C12402DA2F8}"/>
+    <hyperlink ref="D5" r:id="rId11" xr:uid="{A8C34F8F-27D0-4C3E-9B21-C01595B891A0}"/>
+    <hyperlink ref="D4" r:id="rId12" xr:uid="{9A61A1B4-7783-489E-9FB7-F8F0F20312BF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
